--- a/biology/Botanique/Frangula/Frangula.xlsx
+++ b/biology/Botanique/Frangula/Frangula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frangula est un genre de plantes à fleurs de la famille des Rhamnacées.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des sous-espèces et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (11 juillet 2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (11 juillet 2016) :
 Frangula alnus Mill.
 Frangula betulifolia (Greene) V. Grub.
 Frangula californica (Eschsch.) Gray
@@ -548,7 +564,7 @@
 Frangula rubra (Greene) V. Grub.
 Frangula rupestris (Scop.) Schur.
 Frangula sphaerosperma (Sw.) Kartesz &amp; Gandhi
-Selon Catalogue of Life                                   (11 juillet 2016)[3] :
+Selon Catalogue of Life                                   (11 juillet 2016) :
 Frangula acuminata (Maguire &amp; Steyerm.) A.Pool
 Frangula alnus
 Frangula azorica Grubov
@@ -598,7 +614,7 @@
 Frangula surotatensis (Gentry) A.Pool
 Frangula ulei (Pilger) Grubov
 Frangula wendtii (Ishiki) A.Pool
-Selon GRIN            (11 juillet 2016)[4] :
+Selon GRIN            (11 juillet 2016) :
 Frangula alnus Mill.
 Frangula betulifolia (Greene) Grubov
 Frangula californica (Eschsch.) A. Gray
@@ -607,7 +623,7 @@
 Frangula purshiana (DC.) A. Gray
 Frangula rubra (Greene) Grubov
 Frangula rupestris (Scop.) Schur
-Selon ITIS      (11 juillet 2016)[5] :
+Selon ITIS      (11 juillet 2016) :
 Rhamnus alaternus L.
 Rhamnus alnifolia L'Hér.
 Rhamnus arguta Maxim.
@@ -635,7 +651,7 @@
 Rhamnus × spathulifolia Fisch. &amp; C.A. Mey.
 Rhamnus sphaerosperma Sw.
 Rhamnus utilis Decne.
-Selon NCBI  (11 juillet 2016)[6] :
+Selon NCBI  (11 juillet 2016) :
 Frangula alnus
 sous-espèce Frangula alnus subsp. alnus
 sous-espèce Frangula alnus subsp. baetica
@@ -646,7 +662,7 @@
 Frangula polymorpha
 Frangula purshiana
 Frangula rupestris
-Selon The Plant List            (11 juillet 2016)[7] :
+Selon The Plant List            (11 juillet 2016) :
 Frangula acuminatifolia (Hayata) Grubov
 Frangula alnus Mill.
 Frangula austrosinensis Hatus.
@@ -681,7 +697,7 @@
 Frangula rupestris Schur
 Frangula sphaerosperma (Sw.) Kartesz &amp; Gandhi
 Frangula ulei (Pilg.) Grubov
-Selon Tropicos                                           (11 juillet 2016)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (11 juillet 2016) (Attention liste brute contenant possiblement des synonymes) :
 Frangula acuminata (Maguire &amp; Steyerm.) A. Pool
 Frangula alnus Mill.
 Frangula anonifolia (Greene) Grubov
